--- a/drools-usetest/src/main/resources/rules/sheet_drools.xlsx
+++ b/drools-usetest/src/main/resources/rules/sheet_drools.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>ACTION</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,30 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>female</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>female</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONDITION</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -92,10 +68,6 @@
   <si>
     <t>age</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$person.setColor("$param");</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gender</t>
@@ -115,6 +87,18 @@
     <rPh sb="4" eb="5">
       <t>zhu'shi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$person.setAge($param);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -296,14 +280,17 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -583,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -603,16 +590,16 @@
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="3"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4"/>
       <c r="E2" s="10"/>
@@ -621,97 +608,98 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="7"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>19</v>
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>17</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
         <v>6</v>
+      </c>
+      <c r="C9" s="9">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
         <v>19</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -719,16 +707,27 @@
         <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>20</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/drools-usetest/src/main/resources/rules/sheet_drools.xlsx
+++ b/drools-usetest/src/main/resources/rules/sheet_drools.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RuleTable SendItineraryTables</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>male</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,19 +55,11 @@
   </si>
   <si>
     <t>priv.cxs.drools.usetest.sheet.Person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$person:Person</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>age</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>必须有的注释</t>
@@ -90,15 +78,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$person.setAge($param);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sequential</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$person:Person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleTable AgeTables</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify($person){setAge($1)};</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -596,10 +596,10 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="4"/>
       <c r="E2" s="10"/>
@@ -608,10 +608,10 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="12"/>
@@ -620,7 +620,7 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="7"/>
@@ -654,13 +654,13 @@
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -668,13 +668,13 @@
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="9">
         <v>18</v>
@@ -696,7 +696,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="9">
         <v>19</v>

--- a/drools-usetest/src/main/resources/rules/sheet_drools.xlsx
+++ b/drools-usetest/src/main/resources/rules/sheet_drools.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
